--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mcanouil/Projects/perso/curriculum-vitae/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\curriculum-vitae-main\curriculum-vitae-main\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC643FFA-CFE9-ED48-8FC1-C059BD0D76B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8811FF-F5EB-4AA3-B392-71F734E6E1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
   <si>
     <t>position</t>
   </si>
@@ -67,12 +67,6 @@
     <t>Lille, France</t>
   </si>
   <si>
-    <t>mickaelcanouil</t>
-  </si>
-  <si>
-    <t>mcanouil</t>
-  </si>
-  <si>
     <t>level</t>
   </si>
   <si>
@@ -85,9 +79,6 @@
     <t>R (Shiny, Rmarkdown, S3, S4, etc.)</t>
   </si>
   <si>
-    <t>HTML</t>
-  </si>
-  <si>
     <t>LATEX</t>
   </si>
   <si>
@@ -100,9 +91,6 @@
     <t>Julia</t>
   </si>
   <si>
-    <t>Perl</t>
-  </si>
-  <si>
     <t>Python</t>
   </si>
   <si>
@@ -112,18 +100,9 @@
     <t>basic</t>
   </si>
   <si>
-    <t>C/C++</t>
-  </si>
-  <si>
     <t>SQL</t>
   </si>
   <si>
-    <t>NoSQL</t>
-  </si>
-  <si>
-    <t>Lua</t>
-  </si>
-  <si>
     <t>degree</t>
   </si>
   <si>
@@ -139,102 +118,15 @@
     <t>description</t>
   </si>
   <si>
-    <t>University of Lille</t>
-  </si>
-  <si>
-    <t>Oct. 2014</t>
-  </si>
-  <si>
-    <t>Sep. 2017</t>
-  </si>
-  <si>
-    <t>Master's Degree in Biostatistics, Bioinformatics and Genomics (*Specialised in Biostatistics*)</t>
-  </si>
-  <si>
-    <t>University Claude Bernard Lyon 1</t>
-  </si>
-  <si>
-    <t>Lyon, France</t>
-  </si>
-  <si>
     <t>Sep. 2009</t>
   </si>
   <si>
-    <t>Jul. 2011</t>
-  </si>
-  <si>
-    <t>Bachelor's Degree in Biology (*Specialised in Biostatistics*)</t>
-  </si>
-  <si>
-    <t>Sep. 2006</t>
-  </si>
-  <si>
-    <t>Jul. 2009</t>
-  </si>
-  <si>
     <t>activities</t>
   </si>
   <si>
-    <t>Jan. 2016</t>
-  </si>
-  <si>
     <t>Present</t>
   </si>
   <si>
-    <t>Genome-wide association studies, experimental design, -omics data analysis, methodological developments, team management</t>
-  </si>
-  <si>
-    <t>Biostatistician</t>
-  </si>
-  <si>
-    <t>Sep. 2012</t>
-  </si>
-  <si>
-    <t>Dec. 2015</t>
-  </si>
-  <si>
-    <t>Genome-wide association studies, experimental design, -omics data analysis, methodological developments</t>
-  </si>
-  <si>
-    <t>French Institute of Science and Technology for  
-Transport, Development and Networks  
-(IFSTTAR)  
-UMRESTTE - UMR T9405</t>
-  </si>
-  <si>
-    <t>Bron, France</t>
-  </si>
-  <si>
-    <t>Nov. 2011</t>
-  </si>
-  <si>
-    <t>Dec. 2011</t>
-  </si>
-  <si>
-    <t>Analysis of a mobility and accident study in secondary-school pupils</t>
-  </si>
-  <si>
-    <t>Biostatistician (Internship)</t>
-  </si>
-  <si>
-    <t>Jan. 2011</t>
-  </si>
-  <si>
-    <t>Jun. 2011</t>
-  </si>
-  <si>
-    <t>Development of a Non-Parametric (on Time) Clustering Algorithm for Longitudinal Data</t>
-  </si>
-  <si>
-    <t>Mar. 2010</t>
-  </si>
-  <si>
-    <t>Jun. 2010</t>
-  </si>
-  <si>
-    <t>Mathematical Modelling of Nosocomial Rotavirus Infections in Pediatric Ward</t>
-  </si>
-  <si>
     <t>title</t>
   </si>
   <si>
@@ -278,45 +170,6 @@
   </si>
   <si>
     <t>since</t>
-  </si>
-  <si>
-    <t>NACHO</t>
-  </si>
-  <si>
-    <t>NanoString Quality Control Dashboard</t>
-  </si>
-  <si>
-    <t>Mickaël Canouil, Gerard Bouland and Roderick Slieker</t>
-  </si>
-  <si>
-    <t>BOTH</t>
-  </si>
-  <si>
-    <t>2018-06</t>
-  </si>
-  <si>
-    <t>clere</t>
-  </si>
-  <si>
-    <t>Simultaneous Variables Clustering and Regression</t>
-  </si>
-  <si>
-    <t>Loïc Yengo, Julien Jacques, Christophe Biernacki and Mickaël Canouil</t>
-  </si>
-  <si>
-    <t>2014-02</t>
-  </si>
-  <si>
-    <t>snpEnrichment</t>
-  </si>
-  <si>
-    <t>SNPs Enrichment Analysis</t>
-  </si>
-  <si>
-    <t>Mickaël Canouil and Loïc Yengo</t>
-  </si>
-  <si>
-    <t>2013-04</t>
   </si>
   <si>
     <t>Funding Allocation SFD-Lilly</t>
@@ -422,45 +275,9 @@
     <t>show</t>
   </si>
   <si>
-    <t>Dec. 2019</t>
-  </si>
-  <si>
-    <t>Jan. 2020</t>
-  </si>
-  <si>
     <t>orcid</t>
   </si>
   <si>
-    <t>0000-0002-3396-4549</t>
-  </si>
-  <si>
-    <t>Biostatistician (CNRS)</t>
-  </si>
-  <si>
-    <t>Oct. 2017</t>
-  </si>
-  <si>
-    <t>François Briatte, Michał Bojanowski, Mickaël Canouil, Zachary Charlop-Powers, Jacob C. Fisher, Kipp Johnson and Tyler Rinker</t>
-  </si>
-  <si>
-    <t>ggnetwork</t>
-  </si>
-  <si>
-    <t>Geometries to Plot Networks with 'ggplot2'</t>
-  </si>
-  <si>
-    <t>2020-02</t>
-  </si>
-  <si>
-    <t>briatte</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Contributor</t>
-  </si>
-  <si>
     <t>Longitudinal Genetic Modelling: Revisiting Associations of SNPs Associated With Blood Fasting Glucose in Normoglycemic Individuals</t>
   </si>
   <si>
@@ -468,18 +285,6 @@
   </si>
   <si>
     <t>Author / Creator</t>
-  </si>
-  <si>
-    <t>ggpacman</t>
-  </si>
-  <si>
-    <t>A 'ggplot2' and 'gganimate' Version of Pac-Man</t>
-  </si>
-  <si>
-    <t>Mickaël Canouil</t>
-  </si>
-  <si>
-    <t>2020-05</t>
   </si>
   <si>
     <t xml:space="preserve">I've been managing a team of junior statisticians and interns . 
@@ -489,15 +294,6 @@
     <t>rgroup</t>
   </si>
   <si>
-    <t>Doctor of Philosophy (Ph.D.) in Biostatistics</t>
-  </si>
-  <si>
-    <t>Laboratory of Integrated Genomics  
-and Metabolic Diseases Modeling  
-CNRS UMR 8199 - EGID  
-(European Genomics Institute for Diabetes)</t>
-  </si>
-  <si>
     <t>R Advanced</t>
   </si>
   <si>
@@ -528,9 +324,6 @@
     <t>Two-days workshop (in French)</t>
   </si>
   <si>
-    <t>insane</t>
-  </si>
-  <si>
     <t>Feb. 2020</t>
   </si>
   <si>
@@ -540,43 +333,15 @@
     <t>R Packages</t>
   </si>
   <si>
-    <t>An Interactive Web Application for Quality Control and Analysis of Insulin Secretion from Pancreatic Beta Cells</t>
-  </si>
-  <si>
-    <t>2020-11</t>
-  </si>
-  <si>
-    <t>Biometry and Evolutionary Biology laboratory  
-(LBBE)  
-CNRS UMR 5558</t>
-  </si>
-  <si>
-    <t>Hospices Civiles de Lyon  
-Biostatistics Unit  
-CNRS UMR 5558</t>
-  </si>
-  <si>
-    <t>Functional (Epi)genomics and Molecular  
-Physiology of Diabetes and Related Diseases  
-Inserm U1283 / CNRS UMR 8199 - EGID  
-(European Genomics Institute for Diabetes)</t>
-  </si>
-  <si>
     <t>[sfdiabete.org](https://www.sfdiabete.org/medical/la-recherche/laureats-sfd/allocations-2015-les-laureats)</t>
   </si>
   <si>
     <t>Git</t>
   </si>
   <si>
-    <t>CSS</t>
-  </si>
-  <si>
     <t>Markdown</t>
   </si>
   <si>
-    <t>bash/shell</t>
-  </si>
-  <si>
     <t>My Journey To Transparency And Reproducibility</t>
   </si>
   <si>
@@ -608,22 +373,10 @@
   </si>
   <si>
     <t>website</t>
-  </si>
-  <si>
-    <t>[R Lille - R User Group (rlille.fr)](https://rlille.fr/)</t>
   </si>
   <si>
     <t>A Statistical Seminar Applied on Type 2 Diabetes  
 (Host: Pr. Paul Franks)</t>
-  </si>
-  <si>
-    <t>Head of Biostatistics (CNRS)</t>
-  </si>
-  <si>
-    <t>Head of Biostatistics (Institut Pasteur de Lille)</t>
-  </si>
-  <si>
-    <t>https://mickael.canouil.fr/</t>
   </si>
   <si>
     <t>Oct. 2021</t>
@@ -654,49 +407,159 @@
     <t>Thirty minutes overview (in English)</t>
   </si>
   <si>
-    <t>I am currently working as a consultant in **Biostatistics** in the field of genetics,
-*i.e.*, proteomics, metabolomics, transcriptomics, *etc.*
-in Lille &amp; Paris, France.</t>
-  </si>
-  <si>
-    <t>Consulting Senior Biostatistician</t>
-  </si>
-  <si>
-    <t>Consulting Senior Biostatistician (IT&amp;M Stats)</t>
-  </si>
-  <si>
-    <t>Oct. 2022</t>
-  </si>
-  <si>
-    <t>Nov. 2022</t>
-  </si>
-  <si>
-    <t>L'Oréal</t>
-  </si>
-  <si>
-    <t>Statistical analyses of lipidomics and microbiome data</t>
-  </si>
-  <si>
-    <t>[IT&amp;M Stats](https://it-m.fr/nos-filiales/itm-stats/)</t>
-  </si>
-  <si>
-    <t>pro@mickael.canouil.dev</t>
-  </si>
-  <si>
-    <t>MickaelCanouil</t>
-  </si>
-  <si>
     <t>mastodon</t>
   </si>
   <si>
-    <t>MickaelCanouil@fosstodon.org</t>
+    <t>Research assistant</t>
+  </si>
+  <si>
+    <t>[NIGLAS](http://niglas.cas.cn/)</t>
+  </si>
+  <si>
+    <t>Nanjing, China</t>
+  </si>
+  <si>
+    <t>hxfan@niglas.ac.cn</t>
+  </si>
+  <si>
+    <t>https://hxfan1227.github.io</t>
+  </si>
+  <si>
+    <t>0000-0001-7626-1344</t>
+  </si>
+  <si>
+    <t>hongxiang-fan-aa13bb90</t>
+  </si>
+  <si>
+    <t>hxfan1227</t>
+  </si>
+  <si>
+    <t>+8618961797701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am currently working as a __*Research assistant*__ in __*Nanjing Institute of Geography and Limonology, Chinese Academy of Sciences (NIGLAS)*__ in the field of physical geography , *i.e.*, water quality modelling, hydrodynamics, tracer-hydrology, *etc.* in Nanjing, China.  
+Additionally, I am also a __*Honorary visiting scholar*__, working with Prof. [Adrian Werner](https://www.flinders.edu.au/people/adrian.werner) on surface-groundwater interaction related projects in __*Flinders University*__.  </t>
+  </si>
+  <si>
+    <t>Fortran</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>**_Ph.D._ in Physical Ggeography**</t>
+  </si>
+  <si>
+    <t>**_M.Sc._ in Physical Geography**</t>
+  </si>
+  <si>
+    <t>**_B.Sc._ in Enviromental Engineering**</t>
+  </si>
+  <si>
+    <t>University Chinese Academy of Sciences</t>
+  </si>
+  <si>
+    <t>Huazhong Agriclutural University</t>
+  </si>
+  <si>
+    <t>Beijing, China</t>
+  </si>
+  <si>
+    <t>Wuhan, China</t>
+  </si>
+  <si>
+    <t>Jul. 2013</t>
+  </si>
+  <si>
+    <t>Sep. 2013</t>
+  </si>
+  <si>
+    <t>Jul. 2016</t>
+  </si>
+  <si>
+    <t>Sep. 2016</t>
+  </si>
+  <si>
+    <t>Jul. 2019</t>
+  </si>
+  <si>
+    <t>Ph.D. Candidate</t>
+  </si>
+  <si>
+    <t>University of Chinese Academy of Science</t>
+  </si>
+  <si>
+    <t>Attributed the relative contributions of climate change and anthropogenic activities on the water environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research assistant </t>
+  </si>
+  <si>
+    <t>Nanjing Institute of Geography and Limnology, Chinese Academy of Sciences</t>
+  </si>
+  <si>
+    <t>Focus on surface-groundwater interaction and numerical modelling</t>
+  </si>
+  <si>
+    <t>Honorary visiting scholar</t>
+  </si>
+  <si>
+    <t>Adelaide, Australia</t>
+  </si>
+  <si>
+    <t>Jan. 2024</t>
+  </si>
+  <si>
+    <t>Focus on coastal hydrology and surface-groundwater interactions.</t>
+  </si>
+  <si>
+    <t>Flinders University</t>
+  </si>
+  <si>
+    <t>GitHub</t>
+  </si>
+  <si>
+    <t>SGDr</t>
+  </si>
+  <si>
+    <t>efdcr</t>
+  </si>
+  <si>
+    <t>cmdcr</t>
+  </si>
+  <si>
+    <t>Download and process the data from China Meteorological Data Service Center (CMDC)</t>
+  </si>
+  <si>
+    <t>Submarine fresh groundwater discharge calculator in R</t>
+  </si>
+  <si>
+    <t>Environmental Fluid Dynamics Code (EFDC) Toolbox in R</t>
+  </si>
+  <si>
+    <t>Hongxiang Fan and Guoyu Xu</t>
+  </si>
+  <si>
+    <t>Hongxiang Fan, Adrian Werner and Silvia Cristina Solórzano-Rivas</t>
+  </si>
+  <si>
+    <t>Hongxiang Fan</t>
+  </si>
+  <si>
+    <t>2025-01</t>
+  </si>
+  <si>
+    <t>2018-11</t>
+  </si>
+  <si>
+    <t>2019-02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -708,6 +571,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -740,7 +609,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1024,26 +893,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1060,10 +929,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1075,48 +944,46 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="L1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>196</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="F2" t="s">
-        <v>186</v>
+        <v>120</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>124</v>
       </c>
       <c r="I2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" t="s">
-        <v>204</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="L2" t="s">
-        <v>182</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{14053783-6F6B-43AE-88E0-C32E0B16F38D}"/>
+    <hyperlink ref="F2" r:id="rId2" xr:uid="{01D4C045-91DE-430F-9A7D-3001C4D5F54C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1129,83 +996,83 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1218,47 +1085,47 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="67.5" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="67.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1267,43 +1134,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1316,156 +1183,117 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1474,88 +1302,90 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="82.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="142.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1564,20 +1394,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="117.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="117.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1588,174 +1418,89 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>145</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" t="s">
-        <v>201</v>
-      </c>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1767,152 +1512,152 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="131" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>194</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>158</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>147</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>110</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1922,185 +1667,117 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="A8:G8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="100.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
-        <v>77</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B4" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D5" t="s">
-        <v>135</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>139</v>
-      </c>
-      <c r="B6" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E6" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2110,21 +1787,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="99.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2133,33 +1810,33 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2175,125 +1852,125 @@
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="54.6640625" customWidth="1"/>
     <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>98</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>183</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>191</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>180</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\curriculum-vitae-main\curriculum-vitae-main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/259d7e333b35feb4/Frank/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8811FF-F5EB-4AA3-B392-71F734E6E1F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D7E04F-E337-4C04-AF2F-37C710D245C6}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
   <si>
     <t>position</t>
   </si>
@@ -289,9 +289,6 @@
   <si>
     <t xml:space="preserve">I've been managing a team of junior statisticians and interns . 
 My role is to provide guidance regarding choices of statistical methodologies for analysing the data and code optimisation for implementing these methodologies in large scale omics data. </t>
-  </si>
-  <si>
-    <t>rgroup</t>
   </si>
   <si>
     <t>R Advanced</t>
@@ -489,18 +486,12 @@
     <t>University of Chinese Academy of Science</t>
   </si>
   <si>
-    <t>Attributed the relative contributions of climate change and anthropogenic activities on the water environment.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Research assistant </t>
   </si>
   <si>
     <t>Nanjing Institute of Geography and Limnology, Chinese Academy of Sciences</t>
   </si>
   <si>
-    <t>Focus on surface-groundwater interaction and numerical modelling</t>
-  </si>
-  <si>
     <t>Honorary visiting scholar</t>
   </si>
   <si>
@@ -510,9 +501,6 @@
     <t>Jan. 2024</t>
   </si>
   <si>
-    <t>Focus on coastal hydrology and surface-groundwater interactions.</t>
-  </si>
-  <si>
     <t>Flinders University</t>
   </si>
   <si>
@@ -553,6 +541,33 @@
   </si>
   <si>
     <t>2019-02</t>
+  </si>
+  <si>
+    <t>weixin</t>
+  </si>
+  <si>
+    <t>Investigated the impacts of hydrological regimes on the water environment of Poyang Lake using statistical methods and numerical simulations. Applied the Long Short-Term Memory (LSTM) framework to simulate runoff processes based on hydrological and meteorological data. Developed a two-dimensional water environment model using the Environmental Fluid Dynamics Code (EFDC) and coupled it with LSTM-simulated runoff to evaluate drivers of water environment changes.</t>
+  </si>
+  <si>
+    <t>Focused on advancing understanding in water quality remediation, tracer hydrology, and surface-groundwater interactions. By integrating statistical modeling, numerical simulations, and advanced data-driven techniques, I have developed a robust skill set to address complex hydrological challenges. My research bridges theoretical hydrological principles with practical applications, contributing to the effective management and preservation of water resources.</t>
+  </si>
+  <si>
+    <t>Focused on coastal hydrology and surface-groundwater interactions, I developed a theoretically grounded yet practical method for estimating submarine fresh groundwater discharge (SFGD) in data-sparse settings. By integrating existing parsimonious techniques, this approach characterizes water fluxes in coastal aquifers, enabling rapid calibration and uncertainty analysis to support effective hydrological assessments.</t>
+  </si>
+  <si>
+    <t>Summer Intern</t>
+  </si>
+  <si>
+    <t>Chinese University of Hong Kong</t>
+  </si>
+  <si>
+    <t>New Territories, Hongkong</t>
+  </si>
+  <si>
+    <t>Jun. 2016</t>
+  </si>
+  <si>
+    <t>Worked with Prof. [Derrick Y.F. Lai](https://www.grm.cuhk.edu.hk/tc/profile/dyflai/) on research focusing on biogeochemical cycles in wetland and forest ecosystems, greenhouse gas fluxes at the atmosphere-biosphere interface, and nutrient exchange processes at the sediment-water interface.</t>
   </si>
 </sst>
 </file>
@@ -894,7 +909,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -929,7 +944,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
         <v>75</v>
@@ -944,39 +959,42 @@
         <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L1" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
         <v>118</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" t="s">
         <v>122</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>123</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>124</v>
       </c>
-      <c r="I2" t="s">
-        <v>125</v>
+      <c r="L2" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -993,13 +1011,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="131.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1085,7 +1105,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1117,7 +1137,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1216,7 +1236,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1224,7 +1244,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1232,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1264,7 +1284,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1333,54 +1353,54 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
         <v>138</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" t="s">
         <v>140</v>
-      </c>
-      <c r="E4" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1391,17 +1411,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="117.44140625" bestFit="1" customWidth="1"/>
@@ -1427,68 +1447,85 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>143</v>
       </c>
-      <c r="C2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" t="s">
         <v>140</v>
-      </c>
-      <c r="E2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" t="s">
-        <v>150</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
-      <c r="F4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
@@ -1501,6 +1538,9 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1546,7 +1586,7 @@
         <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1555,7 +1595,7 @@
         <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -1563,7 +1603,7 @@
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -1572,29 +1612,29 @@
         <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" t="s">
         <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5" t="s">
         <v>38</v>
@@ -1603,27 +1643,27 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1631,33 +1671,33 @@
         <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1709,71 +1749,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
         <v>155</v>
       </c>
-      <c r="B3" t="s">
-        <v>159</v>
-      </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
         <v>154</v>
       </c>
-      <c r="B4" t="s">
-        <v>158</v>
-      </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -1787,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1836,7 +1876,7 @@
         <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1849,7 +1889,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1882,7 +1922,7 @@
         <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -1896,7 +1936,7 @@
         <v>77</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>50</v>
@@ -1910,7 +1950,7 @@
         <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
         <v>48</v>
@@ -1919,58 +1959,58 @@
         <v>49</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>99</v>
       </c>
-      <c r="D6" t="s">
-        <v>100</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" t="s">
         <v>99</v>
       </c>
-      <c r="D7" t="s">
-        <v>100</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/259d7e333b35feb4/Frank/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41D7E04F-E337-4C04-AF2F-37C710D245C6}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDB27CC-9409-4852-AEB5-DA7C6C598BB6}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -450,9 +450,6 @@
     <t>**_M.Sc._ in Physical Geography**</t>
   </si>
   <si>
-    <t>**_B.Sc._ in Enviromental Engineering**</t>
-  </si>
-  <si>
     <t>University Chinese Academy of Sciences</t>
   </si>
   <si>
@@ -568,6 +565,9 @@
   </si>
   <si>
     <t>Worked with Prof. [Derrick Y.F. Lai](https://www.grm.cuhk.edu.hk/tc/profile/dyflai/) on research focusing on biogeochemical cycles in wetland and forest ecosystems, greenhouse gas fluxes at the atmosphere-biosphere interface, and nutrient exchange processes at the sediment-water interface.</t>
+  </si>
+  <si>
+    <t>**_B.Eng._ in Enviromental Engineering**</t>
   </si>
 </sst>
 </file>
@@ -962,7 +962,7 @@
         <v>116</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1321,8 +1321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1353,19 +1353,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1373,16 +1373,16 @@
         <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
         <v>137</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -1391,16 +1391,16 @@
         <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" t="s">
         <v>139</v>
-      </c>
-      <c r="E4" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,82 +1449,82 @@
     </row>
     <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E2" t="s">
         <v>139</v>
       </c>
-      <c r="E2" t="s">
-        <v>140</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>167</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>168</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" t="s">
         <v>145</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>147</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1749,71 +1749,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
         <v>152</v>
       </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F2" t="s">
         <v>124</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
         <v>155</v>
-      </c>
-      <c r="C3" t="s">
-        <v>156</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
         <v>124</v>
       </c>
       <c r="G3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
         <v>124</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/259d7e333b35feb4/Frank/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CDB27CC-9409-4852-AEB5-DA7C6C598BB6}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E449F6-213B-4FC6-A80B-4FF9D7EE2FCE}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="173">
   <si>
     <t>position</t>
   </si>
@@ -568,6 +568,12 @@
   </si>
   <si>
     <t>**_B.Eng._ in Enviromental Engineering**</t>
+  </si>
+  <si>
+    <t>scholar</t>
+  </si>
+  <si>
+    <t>Tv5IC0kAAAAJ</t>
   </si>
 </sst>
 </file>
@@ -906,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,7 +933,7 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -964,8 +970,11 @@
       <c r="L1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -995,6 +1004,9 @@
       </c>
       <c r="L2" t="s">
         <v>124</v>
+      </c>
+      <c r="M2" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -1321,7 +1333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/259d7e333b35feb4/Frank/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5E449F6-213B-4FC6-A80B-4FF9D7EE2FCE}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD03CFF-5C42-448B-81D5-96000C6851EA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -914,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
@@ -1425,8 +1425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1459,44 +1459,44 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>133</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>138</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>139</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -1556,6 +1556,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/data/cv.xlsx
+++ b/data/cv.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/259d7e333b35feb4/Frank/CV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AD03CFF-5C42-448B-81D5-96000C6851EA}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="8_{5A14CAED-B1A4-469F-8095-BE08698611DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4B0080E-96CA-4B4B-87BC-824B128D273D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="contact" sheetId="1" r:id="rId1"/>
@@ -425,9 +425,6 @@
     <t>0000-0001-7626-1344</t>
   </si>
   <si>
-    <t>hongxiang-fan-aa13bb90</t>
-  </si>
-  <si>
     <t>hxfan1227</t>
   </si>
   <si>
@@ -574,6 +571,9 @@
   </si>
   <si>
     <t>Tv5IC0kAAAAJ</t>
+  </si>
+  <si>
+    <t>hongxiang-fan</t>
   </si>
 </sst>
 </file>
@@ -914,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -968,10 +968,10 @@
         <v>116</v>
       </c>
       <c r="L1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -988,7 +988,7 @@
         <v>120</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>121</v>
@@ -997,16 +997,16 @@
         <v>122</v>
       </c>
       <c r="H2" t="s">
+        <v>172</v>
+      </c>
+      <c r="I2" t="s">
         <v>123</v>
       </c>
-      <c r="I2" t="s">
-        <v>124</v>
-      </c>
       <c r="L2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>
@@ -1015,6 +1015,7 @@
     <hyperlink ref="F2" r:id="rId2" xr:uid="{01D4C045-91DE-430F-9A7D-3001C4D5F54C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1149,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1248,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1296,7 +1297,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1365,54 +1366,54 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s">
-        <v>131</v>
-      </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
         <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
       </c>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
         <v>138</v>
-      </c>
-      <c r="E4" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1461,82 +1462,82 @@
     </row>
     <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>166</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>167</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
         <v>138</v>
       </c>
-      <c r="E3" t="s">
-        <v>139</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="C4" t="s">
         <v>119</v>
       </c>
       <c r="D4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C5" t="s">
         <v>144</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>146</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1762,71 +1763,71 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
-        <v>152</v>
-      </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
       </c>
       <c r="E2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
         <v>154</v>
-      </c>
-      <c r="C3" t="s">
-        <v>155</v>
       </c>
       <c r="D3" t="s">
         <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D4" t="s">
         <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
